--- a/MK_Acc_Ammar.xlsx
+++ b/MK_Acc_Ammar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\OneDrive\work\cnc\01 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayadPC\OneDrive\work\cnc\01 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>النوع</t>
   </si>
@@ -152,6 +152,9 @@
     <t>2 فانوس اسود بطيخة</t>
   </si>
   <si>
+    <t>مراجعه من اول الفانوس الاسود</t>
+  </si>
+  <si>
     <t>عمار له (2226.5) رامز له (208.5) من اجمالي مبيعات (2435)</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
   </si>
   <si>
     <t>العدد</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
   </si>
   <si>
     <t>K009 فانوس قدسي رباعي</t>
@@ -221,6 +227,30 @@
     <t>D0010017 M</t>
   </si>
   <si>
+    <t>سبلميشن ٢ وجه</t>
+  </si>
+  <si>
+    <t>طرح مكن الصوت</t>
+  </si>
+  <si>
+    <t>اباجورة ارابيسك</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K013 فانوس سداسي صغير من غير تقفيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حساب المبيعات </t>
+  </si>
+  <si>
+    <t>جليتر من عمار</t>
+  </si>
+  <si>
+    <t>فوانيس السبليمشن مكرره</t>
+  </si>
+  <si>
+    <t>مش فاكر هل متكرره ولا</t>
+  </si>
+  <si>
     <t>إجمالي مبيعات عمار</t>
   </si>
   <si>
@@ -234,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +305,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="7" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,6 +610,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,7 +668,227 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="7" tint="0.79998168889431442"/>
@@ -663,6 +933,16 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1053,8 +1333,9 @@
   <dimension ref="A1:L837"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1354,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <f>SUM(A3:A1000000)</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="9">
@@ -1082,21 +1363,21 @@
       </c>
       <c r="D1" s="9">
         <f>SUM(D3:D1000000)</f>
-        <v>645</v>
-      </c>
-      <c r="E1" s="52" t="s">
+        <v>845</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1113,11 +1394,11 @@
       <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -1629,6 +1910,9 @@
       <c r="I19" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="K19" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -1688,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1748,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1778,10 +2062,13 @@
         <v>34</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>200</v>
+      </c>
       <c r="B25" s="16">
         <v>0</v>
       </c>
@@ -1791,10 +2078,25 @@
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13">
+        <v>20210409</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1842,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1858,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -12374,18 +12676,23 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:G22 G25:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="G1:G22 G26:G1048576">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12408,11 +12715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J1296"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12423,44 +12730,48 @@
     <col min="5" max="5" width="11.140625" style="38" customWidth="1"/>
     <col min="6" max="6" width="10" style="20" customWidth="1"/>
     <col min="7" max="7" width="72.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <f>SUM(A3:A1000000)</f>
-        <v>1604</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="58" t="s">
+        <v>3384.5</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <f>B3*C3</f>
         <v>960</v>
@@ -12478,10 +12789,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <f>B4*C4</f>
         <v>630</v>
@@ -12499,10 +12810,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <f>B5*C5</f>
         <v>300</v>
@@ -12520,10 +12831,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>B6*C6</f>
         <v>480</v>
@@ -12541,10 +12852,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>-474</v>
       </c>
@@ -12558,10 +12869,11 @@
         <v>7</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" ref="A8:A15" si="0">B8*C8</f>
         <v>700</v>
@@ -12579,10 +12891,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>630</v>
@@ -12600,10 +12912,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>960</v>
@@ -12621,10 +12933,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>528</v>
@@ -12642,10 +12954,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>480</v>
@@ -12663,10 +12975,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -12684,10 +12996,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -12705,10 +13017,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -12726,10 +13038,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>-3000</v>
       </c>
@@ -12745,10 +13057,11 @@
         <v>8</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f>B17*C17</f>
         <v>300</v>
@@ -12766,10 +13079,12 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f>B18*C18</f>
         <v>384</v>
@@ -12787,10 +13102,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>-2000</v>
       </c>
@@ -12806,12 +13123,13 @@
         <v>8</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
-        <f t="shared" ref="A20" si="1">B20*C20</f>
+        <f t="shared" ref="A20:A83" si="1">B20*C20</f>
         <v>140</v>
       </c>
       <c r="B20" s="15">
@@ -12830,7 +13148,7894 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="B21" s="15">
+        <v>25</v>
+      </c>
+      <c r="C21" s="15">
+        <v>12</v>
+      </c>
+      <c r="D21" s="43">
+        <v>4</v>
+      </c>
+      <c r="E21" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B22" s="15">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15">
+        <v>24</v>
+      </c>
+      <c r="D22" s="43">
+        <v>4</v>
+      </c>
+      <c r="E22" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>24</v>
+      </c>
+      <c r="D23" s="43">
+        <v>4</v>
+      </c>
+      <c r="E23" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B24" s="15">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15">
+        <v>24</v>
+      </c>
+      <c r="D24" s="43">
+        <v>4</v>
+      </c>
+      <c r="E24" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
+        <v>24</v>
+      </c>
+      <c r="D25" s="43">
+        <v>4</v>
+      </c>
+      <c r="E25" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <f t="shared" si="1"/>
+        <v>-384</v>
+      </c>
+      <c r="B26" s="15">
+        <v>-8</v>
+      </c>
+      <c r="C26" s="15">
+        <v>48</v>
+      </c>
+      <c r="D26" s="43">
+        <v>4</v>
+      </c>
+      <c r="E26" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B27" s="15">
+        <v>100</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="43">
+        <v>4</v>
+      </c>
+      <c r="E27" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="B28" s="15">
+        <v>14</v>
+      </c>
+      <c r="C28" s="15">
+        <v>24</v>
+      </c>
+      <c r="D28" s="43">
+        <v>4</v>
+      </c>
+      <c r="E28" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <f t="shared" si="1"/>
+        <v>-227.5</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-35</v>
+      </c>
+      <c r="C29" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="D29" s="43">
+        <v>4</v>
+      </c>
+      <c r="E29" s="38">
+        <v>20210409</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B30" s="15">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15">
+        <v>24</v>
+      </c>
+      <c r="D30" s="43">
+        <v>4</v>
+      </c>
+      <c r="E30" s="38">
+        <v>20210410</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="15">
+        <v>24</v>
+      </c>
+      <c r="D31" s="43">
+        <v>4</v>
+      </c>
+      <c r="E31" s="38">
+        <v>20210410</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <f t="shared" ref="A84:A147" si="2">B84*C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18">
+        <f t="shared" ref="A148:A211" si="3">B148*C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="18">
+        <f t="shared" ref="A212:A275" si="4">B212*C212</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="18">
+        <f t="shared" ref="A276:A339" si="5">B276*C276</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="18">
+        <f t="shared" ref="A340:A403" si="6">B340*C340</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="18">
+        <f t="shared" ref="A404:A467" si="7">B404*C404</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="18">
+        <f t="shared" ref="A468:A531" si="8">B468*C468</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="18">
+        <f t="shared" ref="A532:A595" si="9">B532*C532</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="18">
+        <f t="shared" ref="A596:A659" si="10">B596*C596</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="18">
+        <f t="shared" ref="A660:A723" si="11">B660*C660</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="18">
+        <f t="shared" ref="A724:A787" si="12">B724*C724</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="18">
+        <f t="shared" ref="A788:A851" si="13">B788*C788</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="18">
+        <f t="shared" ref="A852:A915" si="14">B852*C852</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="18">
+        <f t="shared" ref="A916:A979" si="15">B916*C916</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="18">
+        <f t="shared" ref="A980:A1043" si="16">B980*C980</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="18">
+        <f t="shared" ref="A1044:A1107" si="17">B1044*C1044</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="18">
+        <f t="shared" ref="A1108:A1171" si="18">B1108*C1108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="18">
+        <f t="shared" ref="A1172:A1235" si="19">B1172*C1172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="18">
+        <f t="shared" ref="A1236:A1296" si="20">B1236*C1236</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12842,20 +21047,108 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:F19 F21:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="F1:F19 F32:F1048576">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"خالص"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"خالص"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"خالص"</formula>
     </cfRule>
@@ -12867,7 +21160,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>دليل!$A$2:$A$12</xm:f>
@@ -12885,7 +21178,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12896,16 +21189,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B1" s="42">
         <f>عمار!A1</f>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B2" s="26">
         <f>عمار!C1</f>
@@ -12914,11 +21207,11 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B3" s="28">
         <f>رامز!A1</f>
-        <v>1604</v>
+        <v>3384.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12927,7 +21220,7 @@
       </c>
       <c r="B4" s="23">
         <f>B1-(B2+B3)</f>
-        <v>-959</v>
+        <v>-2539.5</v>
       </c>
     </row>
   </sheetData>
